--- a/ACTwatch Lite Sampling Tool.xlsx
+++ b/ACTwatch Lite Sampling Tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://psiorg.sharepoint.com/sites/ACTWatchLite/Shared Documents/2. Technical/0. Toolkit/ACTwatch Lite Toolkit v4/06 Sampling tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1311" documentId="8_{8EFD15C0-D979-4576-9CA4-2EF5CAED1302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B775B86B-EE0F-4446-8F09-628C40F4A623}"/>
+  <xr:revisionPtr revIDLastSave="1313" documentId="8_{8EFD15C0-D979-4576-9CA4-2EF5CAED1302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FC22710-4B61-4BDD-85BC-383A3ABC040B}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="660" windowWidth="27760" windowHeight="17500" xr2:uid="{2406B62A-2CDF-3344-BAF3-338E86BD40DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{2406B62A-2CDF-3344-BAF3-338E86BD40DD}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="10" r:id="rId1"/>
@@ -2050,26 +2050,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={CE876C5A-43A5-4777-8EEE-840615B6822A}</author>
-  </authors>
-  <commentList>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{CE876C5A-43A5-4777-8EEE-840615B6822A}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Reviewer comment: I’m a bit confused what this means It’s total number of each type of outlet across all wards that would fall in this stratum? Or the average number per ward?
-Reply:
-    I think this is the average number of outlets per cluster in each strata by outlet type but need you to confirm and maybe help make this more clear? @Paul Bouanchaud @Manfred ACCROMBESSI </t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="123">
   <si>
@@ -3538,6 +3518,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3596,12 +3582,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3609,7 +3589,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{78F0E4B2-23CF-479F-9D43-B3104B129B5F}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{185B7742-2945-4FC6-AB64-1E877BACF673}"/>
-    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3939,14 +3919,6 @@
 </FeaturePropertyBags>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Paul Bouanchaud" id="{B0FCF1C0-82AF-4D36-9F34-B30DEE740758}" userId="pbouanchaud@psi.org" providerId="PeoplePicker"/>
-  <person displayName="Manfred ACCROMBESSI" id="{D121A7A7-74DA-4B79-8948-23C533B12E1F}" userId="maccrombessi@psi.org" providerId="PeoplePicker"/>
-  <person displayName="Katelyn Woolheater" id="{B79E0E60-8557-4954-BB3B-A30BE8B0081D}" userId="S::kwoolheater@psi.org::6fb597a7-f115-4610-b283-fcc168807233" providerId="AD"/>
-</personList>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4262,21 +4234,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C38" dT="2025-07-10T15:30:31.45" personId="{B79E0E60-8557-4954-BB3B-A30BE8B0081D}" id="{CE876C5A-43A5-4777-8EEE-840615B6822A}">
-    <text>Reviewer comment: I’m a bit confused what this means It’s total number of each type of outlet across all wards that would fall in this stratum? Or the average number per ward?</text>
-  </threadedComment>
-  <threadedComment ref="C38" dT="2025-07-10T15:31:22.56" personId="{B79E0E60-8557-4954-BB3B-A30BE8B0081D}" id="{7AAE2D6D-3A04-4806-9567-807B44559175}" parentId="{CE876C5A-43A5-4777-8EEE-840615B6822A}">
-    <text xml:space="preserve">I think this is the average number of outlets per cluster in each strata by outlet type but need you to confirm and maybe help make this more clear? @Paul Bouanchaud @Manfred ACCROMBESSI </text>
-    <mentions>
-      <mention mentionpersonId="{B0FCF1C0-82AF-4D36-9F34-B30DEE740758}" mentionId="{4FE8437E-64B2-48F3-8A48-E3E9A4B012BE}" startIndex="149" length="16"/>
-      <mention mentionpersonId="{D121A7A7-74DA-4B79-8948-23C533B12E1F}" mentionId="{75D6F833-B8F1-4EA1-AAB2-19222268C6D1}" startIndex="166" length="20"/>
-    </mentions>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C253E9-096D-46C5-A910-3425F772CA58}">
   <sheetPr>
@@ -4284,11 +4241,11 @@
   </sheetPr>
   <dimension ref="A6:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8" style="80" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
@@ -4300,42 +4257,42 @@
     <col min="12" max="16384" width="8" style="80" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="96" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="108" t="s">
+    <row r="8" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:11" s="81" customFormat="1" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:11" s="81" customFormat="1" ht="250" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="80"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
       <c r="G10" s="80"/>
       <c r="H10" s="80"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
     </row>
-    <row r="11" spans="1:11" s="81" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="81" customFormat="1" ht="27.5" x14ac:dyDescent="0.4">
       <c r="A11" s="80"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -4345,169 +4302,169 @@
       <c r="J11" s="80"/>
       <c r="K11" s="80"/>
     </row>
-    <row r="12" spans="1:11" s="81" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="81" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="80"/>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
       <c r="G12" s="80"/>
       <c r="H12" s="80"/>
       <c r="I12" s="80"/>
       <c r="J12" s="80"/>
       <c r="K12" s="80"/>
     </row>
-    <row r="13" spans="1:11" s="81" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="81" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="80"/>
-      <c r="B13" s="111"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="114"/>
       <c r="G13" s="80"/>
       <c r="H13" s="80"/>
       <c r="I13" s="80"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80"/>
     </row>
-    <row r="14" spans="1:11" s="81" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="81" customFormat="1" ht="26" x14ac:dyDescent="0.4">
       <c r="A14" s="80"/>
-      <c r="B14" s="111"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="112"/>
+      <c r="E14" s="114"/>
       <c r="G14" s="80"/>
       <c r="H14" s="80"/>
       <c r="I14" s="80"/>
       <c r="J14" s="80"/>
       <c r="K14" s="80"/>
     </row>
-    <row r="15" spans="1:11" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="111"/>
+    <row r="15" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="113"/>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="112"/>
-    </row>
-    <row r="16" spans="1:11" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="111"/>
+      <c r="E15" s="114"/>
+    </row>
+    <row r="16" spans="1:11" ht="26.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="113"/>
       <c r="C16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="112"/>
-    </row>
-    <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="111"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-    </row>
-    <row r="18" spans="1:11" s="81" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="114"/>
+    </row>
+    <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="113"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+    </row>
+    <row r="18" spans="1:11" s="81" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="80"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="G18" s="80"/>
       <c r="H18" s="80"/>
     </row>
-    <row r="19" spans="1:11" s="81" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="81" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="80"/>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
       <c r="G19" s="80"/>
       <c r="H19" s="80"/>
       <c r="I19" s="80"/>
       <c r="J19" s="80"/>
       <c r="K19" s="80"/>
     </row>
-    <row r="20" spans="1:11" s="81" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="81" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="80"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="G20" s="80"/>
       <c r="H20" s="80"/>
     </row>
-    <row r="21" spans="1:11" s="81" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="81" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="80"/>
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
       <c r="G21" s="80"/>
       <c r="H21" s="80"/>
       <c r="I21" s="80"/>
       <c r="J21" s="80"/>
       <c r="K21" s="80"/>
     </row>
-    <row r="22" spans="1:11" s="83" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="83" customFormat="1" ht="140.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="82"/>
       <c r="B22" s="79"/>
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
       <c r="G22" s="82"/>
       <c r="H22" s="82"/>
       <c r="I22" s="82"/>
       <c r="J22" s="82"/>
       <c r="K22" s="82"/>
     </row>
-    <row r="23" spans="1:11" s="83" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="83" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="82"/>
       <c r="B23" s="79"/>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
       <c r="G23" s="82"/>
       <c r="H23" s="82"/>
       <c r="I23" s="82"/>
       <c r="J23" s="82"/>
       <c r="K23" s="82"/>
     </row>
-    <row r="24" spans="1:11" s="83" customFormat="1" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="83" customFormat="1" ht="221.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="82"/>
       <c r="B24" s="79"/>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
       <c r="G24" s="82"/>
       <c r="H24" s="82"/>
       <c r="I24" s="82"/>
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
     </row>
-    <row r="25" spans="1:11" s="81" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="81" customFormat="1" ht="27.5" x14ac:dyDescent="0.4">
       <c r="A25" s="80"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -4517,23 +4474,23 @@
       <c r="J25" s="80"/>
       <c r="K25" s="80"/>
     </row>
-    <row r="26" spans="1:11" s="81" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="81" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="80"/>
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
       <c r="G26" s="80"/>
       <c r="H26" s="80"/>
       <c r="I26" s="80"/>
       <c r="J26" s="80"/>
       <c r="K26" s="80"/>
     </row>
-    <row r="27" spans="1:11" s="81" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="81" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="80"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -4561,14 +4518,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C802D8B-AC7B-4AFA-B15B-F135BB921243}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C802D8B-AC7B-4AFA-B15B-F135BB921243}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A50" zoomScale="99" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C28"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="99" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="10"/>
@@ -4580,14 +4537,14 @@
     <col min="10" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -4598,14 +4555,14 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="9"/>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -4616,14 +4573,14 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -4634,7 +4591,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
@@ -4650,16 +4607,16 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="33"/>
       <c r="B5" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93"/>
@@ -4670,7 +4627,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="33"/>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="C6" s="35"/>
@@ -4686,7 +4643,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="33"/>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="36"/>
@@ -4704,7 +4661,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="33"/>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="14" t="s">
@@ -4724,7 +4681,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="33"/>
     </row>
-    <row r="9" spans="1:14" ht="46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="41.5" x14ac:dyDescent="0.4">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="38" t="s">
@@ -4742,7 +4699,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="1:14" s="11" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="11" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="14" t="s">
@@ -4762,7 +4719,7 @@
       <c r="M10" s="13"/>
       <c r="N10" s="33"/>
     </row>
-    <row r="11" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="87" t="s">
@@ -4780,7 +4737,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="46.5" x14ac:dyDescent="0.4">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="41" t="s">
@@ -4800,7 +4757,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="31" x14ac:dyDescent="0.4">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="44" t="s">
@@ -4820,7 +4777,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
@@ -4836,27 +4793,27 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:14" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="33"/>
       <c r="B15" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
       <c r="M15" s="13"/>
       <c r="N15" s="33"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -4874,14 +4831,14 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="129" t="s">
+      <c r="E17" s="109" t="s">
         <v>120</v>
       </c>
       <c r="F17" s="13"/>
@@ -4894,7 +4851,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -4910,10 +4867,10 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="117" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="13"/>
@@ -4930,10 +4887,10 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="115"/>
+      <c r="C20" s="117"/>
       <c r="D20" s="13"/>
       <c r="E20" s="18" t="s">
         <v>35</v>
@@ -4948,10 +4905,10 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="115"/>
+      <c r="C21" s="117"/>
       <c r="D21" s="13"/>
       <c r="E21" s="18" t="s">
         <v>36</v>
@@ -4966,10 +4923,10 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="115"/>
+      <c r="C22" s="117"/>
       <c r="D22" s="13"/>
       <c r="E22" s="18" t="s">
         <v>37</v>
@@ -4984,10 +4941,10 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="115"/>
+      <c r="C23" s="117"/>
       <c r="D23" s="13"/>
       <c r="E23" s="18" t="s">
         <v>38</v>
@@ -5002,10 +4959,10 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="117"/>
       <c r="D24" s="13"/>
       <c r="E24" s="18"/>
       <c r="F24" s="13"/>
@@ -5018,10 +4975,10 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="115"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="13"/>
       <c r="E25" s="19"/>
       <c r="F25" s="13"/>
@@ -5034,10 +4991,10 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="115"/>
+      <c r="C26" s="117"/>
       <c r="D26" s="13"/>
       <c r="E26" s="19"/>
       <c r="F26" s="13"/>
@@ -5050,10 +5007,10 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="115"/>
+      <c r="C27" s="117"/>
       <c r="D27" s="13"/>
       <c r="E27" s="19"/>
       <c r="F27" s="13"/>
@@ -5066,10 +5023,10 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="115"/>
+      <c r="C28" s="117"/>
       <c r="D28" s="13"/>
       <c r="E28" s="19"/>
       <c r="F28" s="13"/>
@@ -5082,7 +5039,7 @@
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -5098,10 +5055,10 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="115" t="s">
+      <c r="C30" s="117" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="13"/>
@@ -5118,10 +5075,10 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="115"/>
+      <c r="C31" s="117"/>
       <c r="D31" s="13"/>
       <c r="E31" s="18" t="s">
         <v>41</v>
@@ -5136,10 +5093,10 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="115"/>
+      <c r="C32" s="117"/>
       <c r="D32" s="13"/>
       <c r="E32" s="18" t="s">
         <v>42</v>
@@ -5154,10 +5111,10 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="115"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="13"/>
       <c r="E33" s="18" t="s">
         <v>43</v>
@@ -5172,10 +5129,10 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="115"/>
+      <c r="C34" s="117"/>
       <c r="D34" s="13"/>
       <c r="E34" s="19"/>
       <c r="F34" s="13"/>
@@ -5188,10 +5145,10 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="115"/>
+      <c r="C35" s="117"/>
       <c r="D35" s="13"/>
       <c r="E35" s="19"/>
       <c r="F35" s="13"/>
@@ -5204,10 +5161,10 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="115"/>
+      <c r="C36" s="117"/>
       <c r="D36" s="13"/>
       <c r="E36" s="19"/>
       <c r="F36" s="13"/>
@@ -5220,7 +5177,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -5236,10 +5193,10 @@
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
     </row>
-    <row r="38" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="46.5" x14ac:dyDescent="0.4">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="115" t="str">
+      <c r="C38" s="117" t="str">
         <f>_xlfn.CONCAT("2.4 Complete the following table with estimates for the number of each outlet type per ",E17," for each stratum")</f>
         <v>2.4 Complete the following table with estimates for the number of each outlet type per [cluster name e.g. ward, arrondissement, etc] for each stratum</v>
       </c>
@@ -5276,10 +5233,10 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
-      <c r="C39" s="115"/>
+      <c r="C39" s="117"/>
       <c r="D39" s="13"/>
       <c r="E39" s="51" t="str">
         <f t="shared" ref="E39:E48" si="0">IF(ISBLANK(E19),"-",E19)</f>
@@ -5303,10 +5260,10 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="115"/>
+      <c r="C40" s="117"/>
       <c r="D40" s="13"/>
       <c r="E40" s="51" t="str">
         <f t="shared" si="0"/>
@@ -5330,10 +5287,10 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="115"/>
+      <c r="C41" s="117"/>
       <c r="D41" s="13"/>
       <c r="E41" s="51" t="str">
         <f t="shared" si="0"/>
@@ -5357,10 +5314,10 @@
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
     </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="115"/>
+      <c r="C42" s="117"/>
       <c r="D42" s="13"/>
       <c r="E42" s="51" t="str">
         <f t="shared" si="0"/>
@@ -5384,10 +5341,10 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
-      <c r="C43" s="115"/>
+      <c r="C43" s="117"/>
       <c r="D43" s="13"/>
       <c r="E43" s="51" t="str">
         <f t="shared" si="0"/>
@@ -5411,10 +5368,10 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="115"/>
+      <c r="C44" s="117"/>
       <c r="D44" s="13"/>
       <c r="E44" s="51" t="str">
         <f t="shared" si="0"/>
@@ -5430,10 +5387,10 @@
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
-      <c r="C45" s="115"/>
+      <c r="C45" s="117"/>
       <c r="D45" s="13"/>
       <c r="E45" s="51" t="str">
         <f t="shared" si="0"/>
@@ -5449,10 +5406,10 @@
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
-      <c r="C46" s="115"/>
+      <c r="C46" s="117"/>
       <c r="D46" s="13"/>
       <c r="E46" s="51" t="str">
         <f t="shared" si="0"/>
@@ -5468,10 +5425,10 @@
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
-      <c r="C47" s="115"/>
+      <c r="C47" s="117"/>
       <c r="D47" s="13"/>
       <c r="E47" s="51" t="str">
         <f t="shared" si="0"/>
@@ -5487,7 +5444,7 @@
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
     </row>
-    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -5506,7 +5463,7 @@
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -5522,27 +5479,27 @@
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
     </row>
-    <row r="50" spans="1:14" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="33"/>
       <c r="B50" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="116" t="s">
+      <c r="C50" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="116"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
-      <c r="J50" s="116"/>
-      <c r="K50" s="116"/>
-      <c r="L50" s="116"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="118"/>
+      <c r="K50" s="118"/>
+      <c r="L50" s="118"/>
       <c r="M50" s="33"/>
       <c r="N50" s="33"/>
     </row>
-    <row r="51" spans="1:14" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -5558,7 +5515,7 @@
       <c r="M51" s="33"/>
       <c r="N51" s="33"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13" t="s">
@@ -5578,7 +5535,7 @@
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13" t="s">
@@ -5598,7 +5555,7 @@
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13" t="s">
@@ -5618,7 +5575,7 @@
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13" t="s">
@@ -5638,7 +5595,7 @@
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13" t="s">
@@ -5658,14 +5615,14 @@
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
     </row>
-    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D57" s="13"/>
-      <c r="E57" s="128">
+      <c r="E57" s="108">
         <v>0.05</v>
       </c>
       <c r="F57" s="13"/>
@@ -5678,7 +5635,7 @@
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -5694,7 +5651,7 @@
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -5710,7 +5667,7 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
     </row>
-    <row r="60" spans="1:14" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="33"/>
       <c r="B60" s="92" t="s">
         <v>52</v>
@@ -5730,7 +5687,7 @@
       <c r="M60" s="33"/>
       <c r="N60" s="33"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="13"/>
       <c r="B61" s="13" t="s">
         <v>54</v>
@@ -5748,7 +5705,7 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -5764,7 +5721,7 @@
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -5780,7 +5737,7 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -5796,7 +5753,7 @@
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -5827,7 +5784,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5839,7 +5795,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="23" customWidth="1"/>
     <col min="3" max="3" width="63.5" style="23" customWidth="1"/>
@@ -5851,14 +5807,14 @@
     <col min="14" max="16384" width="10.83203125" style="23" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -5869,14 +5825,14 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="9"/>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -5887,14 +5843,14 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -5905,7 +5861,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
@@ -5921,7 +5877,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -5929,7 +5885,7 @@
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="92" t="s">
         <v>52</v>
@@ -5948,7 +5904,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="21"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
@@ -5963,18 +5919,18 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
-      <c r="C8" s="120" t="str">
+      <c r="C8" s="122" t="str">
         <f>_xlfn.CONCAT("This tab shows the minimum number of primary sampling units (",'1. INPUTS'!E18,"s) to include in your study for each stratum")</f>
         <v>This tab shows the minimum number of primary sampling units (s) to include in your study for each stratum</v>
       </c>
-      <c r="D8" s="120"/>
+      <c r="D8" s="122"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -5982,7 +5938,7 @@
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="55" t="s">
@@ -5995,7 +5951,7 @@
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -6003,18 +5959,18 @@
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="121" t="str">
+      <c r="C12" s="123" t="str">
         <f>_xlfn.CONCAT("This means ",ROUNDUP(D10,0), " or more outlets per stratum are needed to have a confidence level of ",'1. INPUTS'!E52," that the real value is within +/-", '1. INPUTS'!E53," of the measured/surveyed value.")</f>
         <v>This means 159 or more outlets per stratum are needed to have a confidence level of 0.95 that the real value is within +/-0.05 of the measured/surveyed value.</v>
       </c>
-      <c r="D12" s="121"/>
+      <c r="D12" s="123"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -6022,7 +5978,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="53" t="s">
@@ -6035,7 +5991,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="32" t="str">
@@ -6049,7 +6005,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="32" t="str">
@@ -6063,7 +6019,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="32" t="str">
@@ -6077,7 +6033,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="32" t="str">
@@ -6091,7 +6047,7 @@
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="32" t="str">
@@ -6105,7 +6061,7 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="32" t="str">
@@ -6119,7 +6075,7 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="32" t="str">
@@ -6133,7 +6089,7 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="32" t="str">
@@ -6147,7 +6103,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="32" t="str">
@@ -6161,7 +6117,7 @@
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="32" t="str">
@@ -6175,7 +6131,7 @@
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -6183,7 +6139,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -6191,7 +6147,7 @@
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="21"/>
       <c r="B27" s="89" t="s">
         <v>58</v>
@@ -6210,7 +6166,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="21"/>
       <c r="B28" s="13" t="s">
         <v>54</v>
@@ -6220,7 +6176,7 @@
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="21"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -6228,7 +6184,7 @@
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -6236,7 +6192,7 @@
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -6244,7 +6200,7 @@
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -6252,8 +6208,8 @@
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
     </row>
-    <row r="33" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C8:D8"/>
@@ -6270,11 +6226,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F761E87-A67A-1045-8AEB-69FE111ED369}">
   <dimension ref="A1:N207"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B246" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.5" style="21" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="21" customWidth="1"/>
@@ -6289,14 +6245,14 @@
     <col min="14" max="16384" width="11" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -6307,14 +6263,14 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A2" s="9"/>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -6325,14 +6281,14 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -6343,7 +6299,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="10" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
@@ -6359,13 +6315,13 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="13" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="I5" s="103"/>
       <c r="J5" s="103"/>
       <c r="K5" s="103"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" s="13"/>
       <c r="B6" s="92" t="s">
         <v>60</v>
@@ -6379,7 +6335,7 @@
       <c r="J6" s="104"/>
       <c r="K6" s="104"/>
     </row>
-    <row r="7" spans="1:14" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="13"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -6390,62 +6346,62 @@
       <c r="J7" s="104"/>
       <c r="K7" s="104"/>
     </row>
-    <row r="8" spans="1:14" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="22" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
       <c r="I8" s="105"/>
       <c r="J8" s="105"/>
       <c r="K8" s="105"/>
     </row>
-    <row r="9" spans="1:14" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
       <c r="I9" s="105"/>
       <c r="J9" s="105"/>
       <c r="K9" s="105"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I10" s="106"/>
     </row>
-    <row r="11" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="122" t="s">
+    <row r="11" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
       <c r="I11" s="106"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="122" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="84"/>
       <c r="D15" s="47" t="s">
         <v>64</v>
@@ -6454,17 +6410,17 @@
         <f>A28</f>
         <v>[strata 1 e.g. state 1]</v>
       </c>
-      <c r="F15" s="124" t="s">
+      <c r="F15" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="I15" s="123" t="s">
+      <c r="G15" s="127"/>
+      <c r="I15" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-    </row>
-    <row r="16" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+    </row>
+    <row r="16" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="48" t="s">
         <v>66</v>
       </c>
@@ -6475,13 +6431,13 @@
         <f>MAX(D:D)</f>
         <v>1759341</v>
       </c>
-      <c r="I16" s="126" t="s">
+      <c r="I16" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-    </row>
-    <row r="17" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+    </row>
+    <row r="17" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="48" t="s">
         <v>69</v>
       </c>
@@ -6504,7 +6460,7 @@
       <c r="L17" s="74"/>
       <c r="M17" s="74"/>
     </row>
-    <row r="18" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="49" t="s">
         <v>74</v>
       </c>
@@ -6525,7 +6481,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="48" t="s">
         <v>77</v>
       </c>
@@ -6534,7 +6490,7 @@
       </c>
       <c r="E19" s="65">
         <f ca="1">RANDBETWEEN(1,E18)</f>
-        <v>135191</v>
+        <v>189177</v>
       </c>
       <c r="I19" s="66">
         <v>1</v>
@@ -6548,7 +6504,7 @@
         <v>Cluster 1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="B20" s="30"/>
       <c r="D20" s="63" t="s">
         <v>79</v>
@@ -6569,7 +6525,7 @@
         <v>Cluster 1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B21" s="30"/>
       <c r="F21" s="27"/>
       <c r="I21" s="66">
@@ -6584,12 +6540,12 @@
         <v>Cluster 1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
       <c r="I22" s="66">
         <v>4</v>
       </c>
@@ -6602,14 +6558,14 @@
         <v>Cluster 1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="122" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B23" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
       <c r="I23" s="66">
         <v>5</v>
       </c>
@@ -6622,7 +6578,7 @@
         <v>Cluster 1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
@@ -6640,7 +6596,7 @@
         <v>Cluster 1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="72" t="s">
         <v>81</v>
       </c>
@@ -6661,7 +6617,7 @@
         <v>Cluster 1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="70" t="s">
         <v>82</v>
       </c>
@@ -6687,7 +6643,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="74" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="74" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="73" t="s">
         <v>87</v>
       </c>
@@ -6715,7 +6671,7 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
     </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="88" t="s">
         <v>34</v>
       </c>
@@ -6743,7 +6699,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="88" t="s">
         <v>34</v>
       </c>
@@ -6771,7 +6727,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="88" t="s">
         <v>34</v>
       </c>
@@ -6800,7 +6756,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="88" t="s">
         <v>34</v>
       </c>
@@ -6828,7 +6784,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="88" t="s">
         <v>34</v>
       </c>
@@ -6856,7 +6812,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="88" t="s">
         <v>34</v>
       </c>
@@ -6884,7 +6840,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="88" t="s">
         <v>34</v>
       </c>
@@ -6912,7 +6868,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="88" t="s">
         <v>34</v>
       </c>
@@ -6940,7 +6896,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="88" t="s">
         <v>34</v>
       </c>
@@ -6968,7 +6924,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="88" t="s">
         <v>34</v>
       </c>
@@ -6996,7 +6952,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="88" t="s">
         <v>34</v>
       </c>
@@ -7024,7 +6980,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="88" t="s">
         <v>34</v>
       </c>
@@ -7052,7 +7008,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="88" t="s">
         <v>34</v>
       </c>
@@ -7080,7 +7036,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="88" t="s">
         <v>34</v>
       </c>
@@ -7108,7 +7064,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="88" t="s">
         <v>34</v>
       </c>
@@ -7136,7 +7092,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="88" t="s">
         <v>34</v>
       </c>
@@ -7164,7 +7120,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="88" t="s">
         <v>34</v>
       </c>
@@ -7192,7 +7148,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="88" t="s">
         <v>34</v>
       </c>
@@ -7220,7 +7176,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="88" t="s">
         <v>34</v>
       </c>
@@ -7248,7 +7204,7 @@
         <v>.</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="88" t="s">
         <v>34</v>
       </c>
@@ -7267,7 +7223,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="88" t="s">
         <v>34</v>
       </c>
@@ -7286,7 +7242,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="88" t="s">
         <v>34</v>
       </c>
@@ -7305,7 +7261,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="88" t="s">
         <v>34</v>
       </c>
@@ -7324,7 +7280,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="88" t="s">
         <v>34</v>
       </c>
@@ -7343,7 +7299,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="88" t="s">
         <v>34</v>
       </c>
@@ -7362,7 +7318,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="88" t="s">
         <v>34</v>
       </c>
@@ -7381,7 +7337,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="88" t="s">
         <v>34</v>
       </c>
@@ -7400,7 +7356,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="88" t="s">
         <v>34</v>
       </c>
@@ -7419,7 +7375,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="88" t="s">
         <v>34</v>
       </c>
@@ -7438,7 +7394,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="88" t="s">
         <v>34</v>
       </c>
@@ -7457,7 +7413,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="88" t="s">
         <v>34</v>
       </c>
@@ -7476,7 +7432,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="88" t="s">
         <v>34</v>
       </c>
@@ -7495,7 +7451,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="88" t="s">
         <v>34</v>
       </c>
@@ -7514,7 +7470,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="88" t="s">
         <v>34</v>
       </c>
@@ -7533,7 +7489,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="88" t="s">
         <v>34</v>
       </c>
@@ -7552,7 +7508,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="88" t="s">
         <v>34</v>
       </c>
@@ -7571,7 +7527,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="88" t="s">
         <v>34</v>
       </c>
@@ -7590,7 +7546,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="88" t="s">
         <v>34</v>
       </c>
@@ -7609,7 +7565,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="88" t="s">
         <v>34</v>
       </c>
@@ -7628,7 +7584,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="88" t="s">
         <v>34</v>
       </c>
@@ -7647,7 +7603,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="88" t="s">
         <v>34</v>
       </c>
@@ -7666,7 +7622,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="88" t="s">
         <v>34</v>
       </c>
@@ -7685,7 +7641,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="88" t="s">
         <v>34</v>
       </c>
@@ -7704,7 +7660,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="88" t="s">
         <v>34</v>
       </c>
@@ -7723,7 +7679,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="71"/>
       <c r="B72" s="71"/>
       <c r="C72" s="71"/>
@@ -7736,7 +7692,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="71"/>
       <c r="B73" s="71"/>
       <c r="C73" s="71"/>
@@ -7749,7 +7705,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="71"/>
       <c r="B74" s="71"/>
       <c r="C74" s="71"/>
@@ -7762,7 +7718,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="71"/>
       <c r="B75" s="71"/>
       <c r="C75" s="71"/>
@@ -7775,7 +7731,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="71"/>
       <c r="B76" s="71"/>
       <c r="C76" s="71"/>
@@ -7788,7 +7744,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="71"/>
       <c r="B77" s="71"/>
       <c r="C77" s="71"/>
@@ -7801,7 +7757,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="71"/>
       <c r="B78" s="71"/>
       <c r="C78" s="71"/>
@@ -7814,7 +7770,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="71"/>
       <c r="B79" s="71"/>
       <c r="C79" s="71"/>
@@ -7827,7 +7783,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="71"/>
       <c r="B80" s="71"/>
       <c r="C80" s="71"/>
@@ -7840,7 +7796,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="71"/>
       <c r="B81" s="71"/>
       <c r="C81" s="71"/>
@@ -7853,7 +7809,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="71"/>
       <c r="B82" s="71"/>
       <c r="C82" s="71"/>
@@ -7866,7 +7822,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="71"/>
       <c r="B83" s="71"/>
       <c r="C83" s="71"/>
@@ -7879,7 +7835,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="71"/>
       <c r="B84" s="71"/>
       <c r="C84" s="71"/>
@@ -7892,7 +7848,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="71"/>
       <c r="B85" s="71"/>
       <c r="C85" s="71"/>
@@ -7905,7 +7861,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="71"/>
       <c r="B86" s="71"/>
       <c r="C86" s="71"/>
@@ -7918,7 +7874,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="71"/>
       <c r="B87" s="71"/>
       <c r="C87" s="71"/>
@@ -7931,7 +7887,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="71"/>
       <c r="B88" s="71"/>
       <c r="C88" s="71"/>
@@ -7944,7 +7900,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="71"/>
       <c r="B89" s="71"/>
       <c r="C89" s="71"/>
@@ -7957,7 +7913,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="71"/>
       <c r="B90" s="71"/>
       <c r="C90" s="71"/>
@@ -7970,7 +7926,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="71"/>
       <c r="B91" s="71"/>
       <c r="C91" s="71"/>
@@ -7983,7 +7939,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="71"/>
       <c r="B92" s="71"/>
       <c r="C92" s="71"/>
@@ -7996,7 +7952,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="71"/>
       <c r="B93" s="71"/>
       <c r="C93" s="71"/>
@@ -8009,7 +7965,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="71"/>
       <c r="B94" s="71"/>
       <c r="C94" s="71"/>
@@ -8022,7 +7978,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="71"/>
       <c r="B95" s="71"/>
       <c r="C95" s="71"/>
@@ -8035,7 +7991,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="71"/>
       <c r="B96" s="71"/>
       <c r="C96" s="71"/>
@@ -8048,7 +8004,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="71"/>
       <c r="B97" s="71"/>
       <c r="C97" s="71"/>
@@ -8061,7 +8017,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="71"/>
       <c r="B98" s="71"/>
       <c r="C98" s="71"/>
@@ -8074,7 +8030,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="71"/>
       <c r="B99" s="71"/>
       <c r="C99" s="71"/>
@@ -8087,7 +8043,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="71"/>
       <c r="B100" s="71"/>
       <c r="C100" s="71"/>
@@ -8100,7 +8056,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="71"/>
       <c r="B101" s="71"/>
       <c r="C101" s="71"/>
@@ -8113,7 +8069,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="71"/>
       <c r="B102" s="71"/>
       <c r="C102" s="71"/>
@@ -8126,7 +8082,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="71"/>
       <c r="B103" s="71"/>
       <c r="C103" s="71"/>
@@ -8139,7 +8095,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="71"/>
       <c r="B104" s="71"/>
       <c r="C104" s="71"/>
@@ -8152,7 +8108,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="71"/>
       <c r="B105" s="71"/>
       <c r="C105" s="71"/>
@@ -8165,7 +8121,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="71"/>
       <c r="B106" s="71"/>
       <c r="C106" s="71"/>
@@ -8178,7 +8134,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="71"/>
       <c r="B107" s="71"/>
       <c r="C107" s="71"/>
@@ -8191,7 +8147,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="71"/>
       <c r="B108" s="71"/>
       <c r="C108" s="71"/>
@@ -8204,7 +8160,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="71"/>
       <c r="B109" s="71"/>
       <c r="C109" s="71"/>
@@ -8217,7 +8173,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="71"/>
       <c r="B110" s="71"/>
       <c r="C110" s="71"/>
@@ -8230,7 +8186,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="71"/>
       <c r="B111" s="71"/>
       <c r="C111" s="71"/>
@@ -8243,7 +8199,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="71"/>
       <c r="B112" s="71"/>
       <c r="C112" s="71"/>
@@ -8256,7 +8212,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="71"/>
       <c r="B113" s="71"/>
       <c r="C113" s="71"/>
@@ -8269,7 +8225,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="71"/>
       <c r="B114" s="71"/>
       <c r="C114" s="71"/>
@@ -8282,7 +8238,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="71"/>
       <c r="B115" s="71"/>
       <c r="C115" s="71"/>
@@ -8295,7 +8251,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="71"/>
       <c r="B116" s="71"/>
       <c r="C116" s="71"/>
@@ -8308,7 +8264,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="71"/>
       <c r="B117" s="71"/>
       <c r="C117" s="71"/>
@@ -8321,7 +8277,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="71"/>
       <c r="B118" s="71"/>
       <c r="C118" s="71"/>
@@ -8334,7 +8290,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="71"/>
       <c r="B119" s="71"/>
       <c r="C119" s="71"/>
@@ -8347,7 +8303,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="71"/>
       <c r="B120" s="71"/>
       <c r="C120" s="71"/>
@@ -8360,7 +8316,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="71"/>
       <c r="B121" s="71"/>
       <c r="C121" s="71"/>
@@ -8373,7 +8329,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="71"/>
       <c r="B122" s="71"/>
       <c r="C122" s="71"/>
@@ -8386,7 +8342,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="71"/>
       <c r="B123" s="71"/>
       <c r="C123" s="71"/>
@@ -8399,7 +8355,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="71"/>
       <c r="B124" s="71"/>
       <c r="C124" s="71"/>
@@ -8412,7 +8368,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="71"/>
       <c r="B125" s="71"/>
       <c r="C125" s="71"/>
@@ -8425,7 +8381,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="71"/>
       <c r="B126" s="71"/>
       <c r="C126" s="71"/>
@@ -8438,7 +8394,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="71"/>
       <c r="B127" s="71"/>
       <c r="C127" s="71"/>
@@ -8451,7 +8407,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="71"/>
       <c r="B128" s="71"/>
       <c r="C128" s="71"/>
@@ -8464,7 +8420,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="71"/>
       <c r="B129" s="71"/>
       <c r="C129" s="71"/>
@@ -8477,7 +8433,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="71"/>
       <c r="B130" s="71"/>
       <c r="C130" s="71"/>
@@ -8490,7 +8446,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="71"/>
       <c r="B131" s="71"/>
       <c r="C131" s="71"/>
@@ -8503,7 +8459,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="71"/>
       <c r="B132" s="71"/>
       <c r="C132" s="71"/>
@@ -8516,7 +8472,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="71"/>
       <c r="B133" s="71"/>
       <c r="C133" s="71"/>
@@ -8529,7 +8485,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="71"/>
       <c r="B134" s="71"/>
       <c r="C134" s="71"/>
@@ -8542,7 +8498,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="71"/>
       <c r="B135" s="71"/>
       <c r="C135" s="71"/>
@@ -8555,7 +8511,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="71"/>
       <c r="B136" s="71"/>
       <c r="C136" s="71"/>
@@ -8568,7 +8524,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="71"/>
       <c r="B137" s="71"/>
       <c r="C137" s="71"/>
@@ -8581,7 +8537,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="71"/>
       <c r="B138" s="71"/>
       <c r="C138" s="71"/>
@@ -8594,7 +8550,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="71"/>
       <c r="B139" s="71"/>
       <c r="C139" s="71"/>
@@ -8607,7 +8563,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="71"/>
       <c r="B140" s="71"/>
       <c r="C140" s="71"/>
@@ -8620,7 +8576,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="71"/>
       <c r="B141" s="71"/>
       <c r="C141" s="71"/>
@@ -8633,7 +8589,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="71"/>
       <c r="B142" s="71"/>
       <c r="C142" s="71"/>
@@ -8646,7 +8602,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="71"/>
       <c r="B143" s="71"/>
       <c r="C143" s="71"/>
@@ -8659,7 +8615,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="71"/>
       <c r="B144" s="71"/>
       <c r="C144" s="71"/>
@@ -8672,7 +8628,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="71"/>
       <c r="B145" s="71"/>
       <c r="C145" s="71"/>
@@ -8685,7 +8641,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="71"/>
       <c r="B146" s="71"/>
       <c r="C146" s="71"/>
@@ -8698,7 +8654,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="71"/>
       <c r="B147" s="71"/>
       <c r="C147" s="71"/>
@@ -8711,7 +8667,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="71"/>
       <c r="B148" s="71"/>
       <c r="C148" s="71"/>
@@ -8724,7 +8680,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="71"/>
       <c r="B149" s="71"/>
       <c r="C149" s="71"/>
@@ -8737,7 +8693,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="71"/>
       <c r="B150" s="71"/>
       <c r="C150" s="71"/>
@@ -8750,7 +8706,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="71"/>
       <c r="B151" s="71"/>
       <c r="C151" s="71"/>
@@ -8763,7 +8719,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="71"/>
       <c r="B152" s="71"/>
       <c r="C152" s="71"/>
@@ -8776,7 +8732,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="71"/>
       <c r="B153" s="71"/>
       <c r="C153" s="71"/>
@@ -8789,7 +8745,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="71"/>
       <c r="B154" s="71"/>
       <c r="C154" s="71"/>
@@ -8802,7 +8758,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="71"/>
       <c r="B155" s="71"/>
       <c r="C155" s="71"/>
@@ -8815,7 +8771,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="71"/>
       <c r="B156" s="71"/>
       <c r="C156" s="71"/>
@@ -8828,7 +8784,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="71"/>
       <c r="B157" s="71"/>
       <c r="C157" s="71"/>
@@ -8841,7 +8797,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="71"/>
       <c r="B158" s="71"/>
       <c r="C158" s="71"/>
@@ -8854,7 +8810,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="71"/>
       <c r="B159" s="71"/>
       <c r="C159" s="71"/>
@@ -8867,7 +8823,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="71"/>
       <c r="B160" s="71"/>
       <c r="C160" s="71"/>
@@ -8880,7 +8836,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="71"/>
       <c r="B161" s="71"/>
       <c r="C161" s="71"/>
@@ -8893,7 +8849,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="71"/>
       <c r="B162" s="71"/>
       <c r="C162" s="71"/>
@@ -8906,7 +8862,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="71"/>
       <c r="B163" s="71"/>
       <c r="C163" s="71"/>
@@ -8919,7 +8875,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="71"/>
       <c r="B164" s="71"/>
       <c r="C164" s="71"/>
@@ -8932,7 +8888,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="71"/>
       <c r="B165" s="71"/>
       <c r="C165" s="71"/>
@@ -8945,7 +8901,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="71"/>
       <c r="B166" s="71"/>
       <c r="C166" s="71"/>
@@ -8958,7 +8914,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="71"/>
       <c r="B167" s="71"/>
       <c r="C167" s="71"/>
@@ -8971,7 +8927,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="71"/>
       <c r="B168" s="71"/>
       <c r="C168" s="71"/>
@@ -8984,7 +8940,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="71"/>
       <c r="B169" s="71"/>
       <c r="C169" s="71"/>
@@ -8997,7 +8953,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="71"/>
       <c r="B170" s="71"/>
       <c r="C170" s="71"/>
@@ -9010,7 +8966,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="71"/>
       <c r="B171" s="71"/>
       <c r="C171" s="71"/>
@@ -9023,7 +8979,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="71"/>
       <c r="B172" s="71"/>
       <c r="C172" s="71"/>
@@ -9036,7 +8992,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="71"/>
       <c r="B173" s="71"/>
       <c r="C173" s="71"/>
@@ -9049,7 +9005,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="71"/>
       <c r="B174" s="71"/>
       <c r="C174" s="71"/>
@@ -9062,7 +9018,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="71"/>
       <c r="B175" s="71"/>
       <c r="C175" s="71"/>
@@ -9075,7 +9031,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="71"/>
       <c r="B176" s="71"/>
       <c r="C176" s="71"/>
@@ -9088,7 +9044,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="71"/>
       <c r="B177" s="71"/>
       <c r="C177" s="71"/>
@@ -9101,7 +9057,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="71"/>
       <c r="B178" s="71"/>
       <c r="C178" s="71"/>
@@ -9114,7 +9070,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="71"/>
       <c r="B179" s="71"/>
       <c r="C179" s="71"/>
@@ -9127,7 +9083,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="71"/>
       <c r="B180" s="71"/>
       <c r="C180" s="71"/>
@@ -9140,7 +9096,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="71"/>
       <c r="B181" s="71"/>
       <c r="C181" s="71"/>
@@ -9153,7 +9109,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="71"/>
       <c r="B182" s="71"/>
       <c r="C182" s="71"/>
@@ -9166,7 +9122,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="71"/>
       <c r="B183" s="71"/>
       <c r="C183" s="71"/>
@@ -9179,7 +9135,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="71"/>
       <c r="B184" s="71"/>
       <c r="C184" s="71"/>
@@ -9192,7 +9148,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="71"/>
       <c r="B185" s="71"/>
       <c r="C185" s="71"/>
@@ -9205,7 +9161,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="71"/>
       <c r="B186" s="71"/>
       <c r="C186" s="71"/>
@@ -9218,7 +9174,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="71"/>
       <c r="B187" s="71"/>
       <c r="C187" s="71"/>
@@ -9231,7 +9187,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="71"/>
       <c r="B188" s="71"/>
       <c r="C188" s="71"/>
@@ -9244,7 +9200,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="71"/>
       <c r="B189" s="71"/>
       <c r="C189" s="71"/>
@@ -9257,7 +9213,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="71"/>
       <c r="B190" s="71"/>
       <c r="C190" s="71"/>
@@ -9270,7 +9226,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="71"/>
       <c r="B191" s="71"/>
       <c r="C191" s="71"/>
@@ -9283,7 +9239,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="71"/>
       <c r="B192" s="71"/>
       <c r="C192" s="71"/>
@@ -9296,7 +9252,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="71"/>
       <c r="B193" s="71"/>
       <c r="C193" s="71"/>
@@ -9309,7 +9265,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="71"/>
       <c r="B194" s="71"/>
       <c r="C194" s="71"/>
@@ -9322,7 +9278,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="71"/>
       <c r="B195" s="71"/>
       <c r="C195" s="71"/>
@@ -9335,7 +9291,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="71"/>
       <c r="B196" s="71"/>
       <c r="C196" s="71"/>
@@ -9348,7 +9304,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="71"/>
       <c r="B197" s="71"/>
       <c r="C197" s="71"/>
@@ -9361,7 +9317,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="71"/>
       <c r="B198" s="71"/>
       <c r="C198" s="71"/>
@@ -9374,7 +9330,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="71"/>
       <c r="B199" s="71"/>
       <c r="C199" s="71"/>
@@ -9387,7 +9343,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="71"/>
       <c r="B200" s="71"/>
       <c r="C200" s="71"/>
@@ -9400,7 +9356,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="71"/>
       <c r="B201" s="71"/>
       <c r="C201" s="71"/>
@@ -9413,7 +9369,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="71"/>
       <c r="B202" s="71"/>
       <c r="C202" s="71"/>
@@ -9426,7 +9382,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="71"/>
       <c r="B203" s="71"/>
       <c r="C203" s="71"/>
@@ -9439,7 +9395,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="71"/>
       <c r="B204" s="71"/>
       <c r="C204" s="71"/>
@@ -9452,7 +9408,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="71"/>
       <c r="B205" s="71"/>
       <c r="C205" s="71"/>
@@ -9465,7 +9421,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="71"/>
       <c r="B206" s="71"/>
       <c r="C206" s="71"/>
@@ -9478,7 +9434,7 @@
         <v>no</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="71"/>
       <c r="B207" s="71"/>
       <c r="C207" s="71"/>
@@ -9522,16 +9478,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10DC7ED-4076-49C7-A5BE-146DA99C3CE7}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -9542,7 +9498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -9553,7 +9509,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9564,7 +9520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9575,7 +9531,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9586,7 +9542,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9597,7 +9553,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9608,7 +9564,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9619,7 +9575,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9636,8 +9592,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001CA194C411A66A43AF5A340052B5B424" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3649016989674af317ef4fc009f861e6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1011fb24-49a0-463f-ada9-a8217d0aa252" xmlns:ns3="a72d8ac4-480f-42af-94c3-1b0dbed1eec5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce701d13bb6f098f04d75cc544fed808" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1011fb24-49a0-463f-ada9-a8217d0aa252" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a72d8ac4-480f-42af-94c3-1b0dbed1eec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <ORDER0 xmlns="a72d8ac4-480f-42af-94c3-1b0dbed1eec5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001CA194C411A66A43AF5A340052B5B424" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f902c0012b514c5cf77e94f63d10ba95">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1011fb24-49a0-463f-ada9-a8217d0aa252" xmlns:ns3="a72d8ac4-480f-42af-94c3-1b0dbed1eec5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="699af3f3b7f46e0b6acccc7cbded096d" ns2:_="" ns3:_="">
     <xsd:import namespace="1011fb24-49a0-463f-ada9-a8217d0aa252"/>
     <xsd:import namespace="a72d8ac4-480f-42af-94c3-1b0dbed1eec5"/>
     <xsd:element name="properties">
@@ -9876,47 +9853,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1011fb24-49a0-463f-ada9-a8217d0aa252" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a72d8ac4-480f-42af-94c3-1b0dbed1eec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <ORDER0 xmlns="a72d8ac4-480f-42af-94c3-1b0dbed1eec5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5BA5A9E-B99E-4060-A90A-E61BD4A8ACA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1011fb24-49a0-463f-ada9-a8217d0aa252"/>
-    <ds:schemaRef ds:uri="a72d8ac4-480f-42af-94c3-1b0dbed1eec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{566B8B70-EA3C-4309-946A-6DCEC11B9AB0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -9933,10 +9870,14 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02E3B018-9D9D-45EC-A8CC-03D6F3AC8FCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E76A3027-DF5D-4D28-A36F-DB4E13A72E8A}"/>
 </file>